--- a/productivity_can.xlsx
+++ b/productivity_can.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cf53497273c5c07f/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC76789-130D-4D15-ABFE-DD6BA531CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4BC76789-130D-4D15-ABFE-DD6BA531CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2C7A49-BF89-4B0C-9F5F-A383997106CC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7E844431-8890-49E7-A83F-0DA43CCFFB98}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Productivity</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>R*US</t>
   </si>
 </sst>
 </file>
@@ -83,8 +86,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -422,1132 +424,1540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC20CC-173B-4798-8A0F-6B607E5954CE}">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1990</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1.0049341850858211</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1">
+        <v>3.8007347628035499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1990.25</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1.0023320697799629</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1">
+        <v>3.7275529057112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1990.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.99870135209330746</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1">
+        <v>3.56876210276838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1990.75</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.99403239304090862</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1">
+        <v>3.1529449786991801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1991</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.98831279727013821</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1">
+        <v>2.95945003437566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1991.25</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.98459270875975136</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C7" s="1">
+        <v>2.99444504014944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1991.5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0.98286225125930859</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="C8" s="1">
+        <v>2.9589400199637099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1991.75</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.98311683067606104</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="C9" s="1">
+        <v>2.8187813374147801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1992</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>0.98535712287835731</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="C10" s="1">
+        <v>2.89704771788863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1992.25</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>0.98748621749083931</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="C11" s="1">
+        <v>2.87696894901516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>1992.5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>0.98950976692514825</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="C12" s="1">
+        <v>2.7938689664729202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>1992.75</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>0.99143314338706223</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="C13" s="1">
+        <v>2.8220713405443201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>1993</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>0.99326145313885794</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="C14" s="1">
+        <v>2.59884424339256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>1993.25</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>0.99596614395422334</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="C15" s="1">
+        <v>2.5733053157115102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>1993.5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>0.99955439636227184</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="C16" s="1">
+        <v>2.4200405223877701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>1993.75</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>1.0040357366093069</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="C17" s="1">
+        <v>2.5122300745516402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>1994</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>1.009422061949512</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="C18" s="1">
+        <v>2.46013617257963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1994.25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>1.013915934387301</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="C19" s="1">
+        <v>2.6255359117473702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1994.5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>1.017529284447853</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="C20" s="1">
+        <v>2.5141826717432401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>1994.75</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>1.020271705007797</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="C21" s="1">
+        <v>2.5996314843983499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>1995</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>1.0221504767627889</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="C22" s="1">
+        <v>2.5082523553293798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>1995.25</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>1.022447082097625</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="C23" s="1">
+        <v>2.48092225222261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1995.5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>1.0211623084528629</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="C24" s="1">
+        <v>2.5466795697145201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>1995.75</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>1.0182927449563579</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="C25" s="1">
+        <v>2.5844343197946902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>1996</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1.013830773367935</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="C26" s="1">
+        <v>2.5851488563893201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1996.25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1.01164681310121</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="C27" s="1">
+        <v>2.8533081514735201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>1996.5</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>1.0117350660848501</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="C28" s="1">
+        <v>2.8540670836634101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>1996.75</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1.0140957666166599</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="C29" s="1">
+        <v>2.9717990048913601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>1997</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>1.0187351819856021</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="C30" s="1">
+        <v>2.8912267159183198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>1997.25</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>1.0225041716560279</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="C31" s="1">
+        <v>3.1633069144475798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1997.5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>1.025412741703273</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="C32" s="1">
+        <v>3.1279068706261501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>1997.75</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>1.027468613923775</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="C33" s="1">
+        <v>3.1242920190572998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>1998</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>1.0286772463352301</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="C34" s="1">
+        <v>3.1653740516665598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>1998.25</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>1.030675846256127</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="C35" s="1">
+        <v>3.2013507115684501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>1998.5</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1.0334697196552041</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="C36" s="1">
+        <v>3.3452762709647601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>1998.75</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1.037066283827323</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="C37" s="1">
+        <v>3.5183262606868002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>1999</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1.041475087085215</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="C38" s="1">
+        <v>3.47667043489102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>1999.25</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>1.046572208155202</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="C39" s="1">
+        <v>3.49226285889111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>1999.5</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>1.052371179092791</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="C40" s="1">
+        <v>3.6165096743133298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>1999.75</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>1.0588873952546001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="C41" s="1">
+        <v>3.8269485453070402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>2000</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>1.0661381561706129</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="C42" s="1">
+        <v>3.7036871083388898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>2000.25</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>1.071104647463208</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="C43" s="1">
+        <v>3.89592046097337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>2000.5</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>1.0738000543863571</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="C44" s="1">
+        <v>3.7160466393039102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>2000.75</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>1.074231532821899</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="C45" s="1">
+        <v>3.7178563895580101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>2001</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>1.0724002282772811</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="C46" s="1">
+        <v>3.5542548365389801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>2001.25</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>1.072134758023394</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="C47" s="1">
+        <v>3.5040344399596401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>2001.5</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>1.0734344172784309</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="C48" s="1">
+        <v>3.1591259909279099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>2001.75</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>1.076302656433491</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="C49" s="1">
+        <v>3.1361484615303299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>2002</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>1.0807470902128311</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="C50" s="1">
+        <v>3.07346821022935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>2002.25</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>1.083071898039131</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="C51" s="1">
+        <v>3.0654767969996102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>2002.5</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>1.08328325191186</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="C52" s="1">
+        <v>2.9381461329051501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>2002.75</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>1.081381712942342</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="C53" s="1">
+        <v>2.6793941255205098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>2003</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>1.0773622328434089</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="C54" s="1">
+        <v>2.5675530985578199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>2003.25</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>1.074379817591135</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="C55" s="1">
+        <v>2.5654431683684198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>2003.5</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>1.072426549341666</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="C56" s="1">
+        <v>2.74593028330986</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>2003.75</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>1.071497242474728</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="C57" s="1">
+        <v>2.7404308718267099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>2004</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>1.0715894298266131</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="C58" s="1">
+        <v>2.6566134895664999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>2004.25</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>1.0722649075890189</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="C59" s="1">
+        <v>2.63885605678094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>2004.5</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>1.0735254690492619</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="C60" s="1">
+        <v>2.5531792074594599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>2004.75</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>1.075374460799942</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="C61" s="1">
+        <v>2.6171034090907401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>2005</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>1.077816791623615</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="C62" s="1">
+        <v>2.7289778407680498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>2005.25</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>1.0794956634145869</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="C63" s="1">
+        <v>2.55572697485947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>2005.5</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>1.080415533313654</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="C64" s="1">
+        <v>2.5094636825077998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>2005.75</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>1.080578843430855</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="C65" s="1">
+        <v>2.5607348315428999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>2006</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>1.079986027328889</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="C66" s="1">
+        <v>2.70365811230235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>2006.25</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>1.078622016301868</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="C67" s="1">
+        <v>2.67629541174133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>2006.5</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>1.076483189114849</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="C68" s="1">
+        <v>2.5067841006665299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>2006.75</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>1.073563867517735</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="C69" s="1">
+        <v>2.5408436089342898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>2007</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>1.069856301170413</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="C70" s="1">
+        <v>2.5542117475486501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>2007.25</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>1.066279764859617</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="C71" s="1">
+        <v>2.47729211313484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>2007.5</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>1.06282476344344</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="C72" s="1">
+        <v>2.4951929569585198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>2007.75</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>1.059482124436022</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="C73" s="1">
+        <v>2.5983764225199799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>2008</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>1.056242973656045</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="C74" s="1">
+        <v>2.3035879947856999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>2008.25</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>1.0518667770561689</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="C75" s="1">
+        <v>2.2963766661432001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>2008.5</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>1.046341916522072</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="C76" s="1">
+        <v>2.02133457200717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>2008.75</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>1.039653724417186</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="C77" s="1">
+        <v>1.1103445073267599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>2009</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>1.0317844446424189</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="C78" s="1">
+        <v>0.79126793390341699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>2009.25</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>1.026631781826622</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="C79" s="1">
+        <v>0.84704815664962396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>2009.5</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>1.0241820564596831</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="C80" s="1">
+        <v>0.85372554350875696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>2009.75</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>1.0244287649056889</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="C81" s="1">
+        <v>1.1287606442145699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>2010</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>1.0273725621367971</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="C82" s="1">
+        <v>0.98129622105799497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>2010.25</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>1.0303687010841791</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="C83" s="1">
+        <v>0.98903012718313899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>2010.5</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>1.0334251360259421</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="C84" s="1">
+        <v>0.90059958412688101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>2010.75</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>1.036549981316585</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="C85" s="1">
+        <v>0.87948816073060898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>2011</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>1.039751532929331</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="C86" s="1">
+        <v>0.73282803807738295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>2011.25</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>1.0411310645209471</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="C87" s="1">
+        <v>0.893055155049854</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>2011.5</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>1.040692238531038</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="C88" s="1">
+        <v>0.73558917516390299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>2011.75</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>1.0384338899455541</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="C89" s="1">
+        <v>0.85363457878975202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>2012</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>1.034350023203866</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="C90" s="1">
+        <v>0.98448689690998303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>2012.25</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>1.031500596492045</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="C91" s="1">
+        <v>0.84739009185731995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>2012.5</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>1.0298780450299141</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="C92" s="1">
+        <v>0.67408320442339198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>2012.75</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>1.0294780611983021</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="C93" s="1">
+        <v>0.63502522127981298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>2013</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>1.030299583102986</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="C94" s="1">
+        <v>0.74602862402564596</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>2013.25</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>1.0326526962471509</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="C95" s="1">
+        <v>0.61408947417855297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>2013.5</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>1.0365436477764369</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="C96" s="1">
+        <v>0.73861232175218305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>2013.75</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>1.0419827675557509</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="C97" s="1">
+        <v>0.82472135670040403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>2014</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>1.048984495593432</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="C98" s="1">
+        <v>0.55274227505229401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>2014.25</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>1.0527988838940281</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="C99" s="1">
+        <v>0.82874399876454996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>2014.5</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>1.053436059059103</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="C100" s="1">
+        <v>0.936544933283597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>2014.75</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>1.050897712688599</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="C101" s="1">
+        <v>0.82833747921377299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>2015</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>1.045177105871764</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="C102" s="1">
+        <v>0.83966090174057195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>2015.25</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>1.040845905653109</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="C103" s="1">
+        <v>0.93131628626155205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>2015.5</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>1.037892613376636</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="C104" s="1">
+        <v>0.85780125426795895</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>2015.75</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>1.036309388515418</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="C105" s="1">
+        <v>0.75439682520934004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>2016</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>1.0360920278562249</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="C106" s="1">
+        <v>0.85799503224884899</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>2016.25</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>1.0371091123382401</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="C107" s="1">
+        <v>0.88335418669033405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>2016.5</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>1.0393633421609421</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="C108" s="1">
+        <v>0.91844966002782902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>2016.75</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>1.042860701950292</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="C109" s="1">
+        <v>0.87880203269117296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>2017</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>1.047610476646974</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="C110" s="1">
+        <v>0.89424357676669497</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>2017.25</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>1.0511289549472851</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="C111" s="1">
+        <v>0.84400716122127795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>2017.5</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>1.053425477858237</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="C112" s="1">
+        <v>0.87530212773703997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>2017.75</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>1.054506142287295</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="C113" s="1">
+        <v>1.05796499424479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>2018</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>1.054373817228708</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="C114" s="1">
+        <v>1.1869651111250501</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>2018.25</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>1.053429491283121</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="C115" s="1">
+        <v>1.1589400626437001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>2018.5</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>1.051670657413535</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="C116" s="1">
+        <v>1.08992654737332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>2018.75</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>1.0490926461924011</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="C117" s="1">
+        <v>1.03136734169525</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>2019</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>1.045688613405021</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="C118" s="1">
+        <v>1.0284542085863699</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
         <v>2019.25</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>1.0466433872825269</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="C119" s="1">
+        <v>1.1263801506240001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>2019.5</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>1.0519595025995361</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="C120" s="1">
+        <v>1.24082581813093</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>2019.75</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>1.0616510728068671</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="C121" s="1">
+        <v>1.1986638206909199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>2020</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>1.075743827500536</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="C122" s="1">
+        <v>1.21943227962961</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
         <v>2020.25</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>1.082501504308925</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="C123" s="1">
+        <v>1.18681543417209</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>2020.5</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>1.081942043802093</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="C124" s="1">
+        <v>1.25725292071648</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>2020.75</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>1.0740639607003051</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="C125" s="1">
+        <v>1.2357554320587101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>2021</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>1.058846339930847</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="C126" s="1">
+        <v>1.35439690361905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>2021.25</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>1.048594032903698</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="C127" s="1">
+        <v>1.39139270677031</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>2021.5</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>1.043279821354697</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="C128" s="1">
+        <v>1.35207261638316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>2021.75</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>1.042889596887228</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="C129" s="1">
+        <v>1.5904924058050001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>2022</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>1.0474223235166491</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="C130" s="1">
+        <v>1.3145675433022099</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
         <v>2022.25</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>1.04831686468784</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="C131" s="1">
+        <v>1.1023751507572599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>2022.5</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
         <v>1.04557559526705</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="C132" s="1">
+        <v>1.1895692872172901</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>2022.75</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
         <v>1.039191237614713</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="C133" s="1">
+        <v>1.13124200064797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>2023</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
         <v>1.0291468422644681</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="C134" s="1">
+        <v>1.06711607646728</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>2023.25</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
         <v>1.022707676515977</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="C135" s="1">
+        <v>0.89180730457028501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>2023.5</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
         <v>1.019856645395995</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="C136" s="1">
+        <v>0.85388904286079903</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>2023.75</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
         <v>1.020586179864893</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="C137" s="1">
+        <v>0.76290415000641099</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>2024</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
         <v>1.0248982167220531</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="C138" s="1">
+        <v>0.76662042485009196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
         <v>2024.25</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
         <v>1.028181078867211</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="1"/>
+      <c r="C139" s="1">
+        <v>0.74149618410060703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
